--- a/Unity/Assets/Config/Excel/BuffConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23550" windowHeight="11250"/>
+    <workbookView windowWidth="24645" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="BuffConfigProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -62,7 +62,16 @@
     <t>long</t>
   </si>
   <si>
-    <t>(list#sep=,),int</t>
+    <t>BuffParams</t>
+  </si>
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>$type</t>
+  </si>
+  <si>
+    <t>$value</t>
   </si>
   <si>
     <t>##</t>
@@ -83,31 +92,49 @@
     <t>参数列表</t>
   </si>
   <si>
-    <t>Control</t>
+    <t>控制类</t>
   </si>
   <si>
     <t>buff描述1</t>
   </si>
   <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>ModifyProperty</t>
+    <t>Buff控制参数</t>
+  </si>
+  <si>
+    <t>沉默</t>
+  </si>
+  <si>
+    <t>修改属性值</t>
   </si>
   <si>
     <t>buff描述2</t>
   </si>
   <si>
-    <t>Action</t>
+    <t>Buff修改属性参数</t>
+  </si>
+  <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
+    <t>响应行动</t>
   </si>
   <si>
     <t>buff描述3</t>
   </si>
   <si>
-    <t>ContinueDamage</t>
+    <t>Buff行为参数</t>
+  </si>
+  <si>
+    <t>变羊</t>
+  </si>
+  <si>
+    <t>持续伤害</t>
   </si>
   <si>
     <t>buff描述4</t>
+  </si>
+  <si>
+    <t>BuffDot参数</t>
   </si>
 </sst>
 </file>
@@ -291,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +334,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +654,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,16 +678,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -663,86 +702,88 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -754,19 +795,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1119,282 +1169,336 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="4" customWidth="1"/>
-    <col min="7" max="11" width="9" style="4"/>
-    <col min="12" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="21.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="24" style="6" customWidth="1"/>
+    <col min="7" max="11" width="9" style="6"/>
+    <col min="12" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:11">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
-      <c r="A3" s="6" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:11">
+      <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:11">
+      <c r="A4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="G4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:11">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="10">
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="16">
         <v>40001</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="C6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="6">
         <v>5000</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="10">
+      <c r="F6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="16">
         <v>40002</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="C7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6">
         <f>60*60*1000</f>
         <v>3600000</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:11">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10">
+      <c r="F7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="1:11">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16">
         <v>40003</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="C8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="16">
         <f>5*60*1000</f>
         <v>300000</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10">
+      <c r="F8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="16">
         <v>40004</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="C9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6">
         <f>15*1000</f>
         <v>15000</v>
       </c>
-      <c r="F7" s="12">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="F9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/BuffConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="10455"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="BuffConfigProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -35,16 +35,28 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>#Desc</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Desc</t>
   </si>
   <si>
     <t>ContinueTime</t>
   </si>
   <si>
-    <t>Parameters</t>
+    <t>NotifyType</t>
+  </si>
+  <si>
+    <t>Tick</t>
+  </si>
+  <si>
+    <t>AddActions</t>
+  </si>
+  <si>
+    <t>TickActions</t>
+  </si>
+  <si>
+    <t>RemoveActions</t>
   </si>
   <si>
     <t>##type</t>
@@ -53,88 +65,79 @@
     <t>int</t>
   </si>
   <si>
-    <t>BuffType</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
-    <t>BuffParams</t>
+    <t>MessageNotifyType</t>
+  </si>
+  <si>
+    <t>(list#sep=,),int#ref=ActionConfigCategory</t>
   </si>
   <si>
     <t>##group</t>
   </si>
   <si>
-    <t>$type</t>
-  </si>
-  <si>
-    <t>$value</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
     <t>编号</t>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>描述</t>
+    <t>buff名称</t>
+  </si>
+  <si>
+    <t>buff描述</t>
   </si>
   <si>
     <t>持续时长（ms）</t>
   </si>
   <si>
-    <t>参数列表</t>
-  </si>
-  <si>
-    <t>控制类</t>
+    <t>通知客户端方式</t>
+  </si>
+  <si>
+    <t>buff生效间隔</t>
+  </si>
+  <si>
+    <t>buff添加行为</t>
+  </si>
+  <si>
+    <t>buff心跳行为</t>
+  </si>
+  <si>
+    <t>buff移除行为</t>
+  </si>
+  <si>
+    <t>buff40001</t>
   </si>
   <si>
     <t>buff描述1</t>
   </si>
   <si>
-    <t>Buff控制参数</t>
-  </si>
-  <si>
-    <t>沉默</t>
-  </si>
-  <si>
-    <t>修改属性值</t>
+    <t>通知视野内所有玩家</t>
+  </si>
+  <si>
+    <t>1001,1001</t>
+  </si>
+  <si>
+    <t>buff40002</t>
   </si>
   <si>
     <t>buff描述2</t>
   </si>
   <si>
-    <t>Buff修改属性参数</t>
-  </si>
-  <si>
-    <t>MaxHp</t>
-  </si>
-  <si>
-    <t>响应行动</t>
+    <t>buff40003</t>
   </si>
   <si>
     <t>buff描述3</t>
   </si>
   <si>
-    <t>Buff行为参数</t>
-  </si>
-  <si>
-    <t>变羊</t>
-  </si>
-  <si>
-    <t>持续伤害</t>
+    <t>buff40004</t>
   </si>
   <si>
     <t>buff描述4</t>
-  </si>
-  <si>
-    <t>BuffDot参数</t>
   </si>
 </sst>
 </file>
@@ -318,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +349,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,7 +663,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,16 +687,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -702,124 +711,119 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1169,336 +1173,388 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="6" customWidth="1"/>
-    <col min="6" max="6" width="24" style="6" customWidth="1"/>
-    <col min="7" max="11" width="9" style="6"/>
-    <col min="12" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="21.125" style="7" customWidth="1"/>
+    <col min="2" max="3" width="12.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="7" customWidth="1"/>
+    <col min="6" max="7" width="23.25" style="7" customWidth="1"/>
+    <col min="8" max="10" width="44.75" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
-      <c r="A2" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:10">
+      <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:11">
-      <c r="A3" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:11">
-      <c r="A4" s="14" t="s">
+      <c r="D2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:10">
+      <c r="A3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:10">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:11">
-      <c r="A5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:10">
+      <c r="A5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:10">
+      <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="16">
+      <c r="E6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="20">
         <v>40001</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="C7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7">
         <v>5000</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="16">
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="20">
         <v>40002</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="C8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="7">
         <f>60*60*1000</f>
         <v>3600000</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16">
+      <c r="H8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="1:10">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20">
         <v>40003</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="C9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="20">
         <f>5*60*1000</f>
         <v>300000</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="16">
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="20">
         <v>40004</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="C10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="7">
         <f>15*1000</f>
         <v>15000</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="F10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="F5:H5"/>
-  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/BuffConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuffConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -59,6 +59,9 @@
     <t>RemoveActions</t>
   </si>
   <si>
+    <t>Fx</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -110,6 +113,9 @@
     <t>buff移除行为</t>
   </si>
   <si>
+    <t>buff特效</t>
+  </si>
+  <si>
     <t>buff40001</t>
   </si>
   <si>
@@ -122,22 +128,34 @@
     <t>1001,1001</t>
   </si>
   <si>
+    <t>fx1</t>
+  </si>
+  <si>
     <t>buff40002</t>
   </si>
   <si>
     <t>buff描述2</t>
   </si>
   <si>
+    <t>fx2</t>
+  </si>
+  <si>
     <t>buff40003</t>
   </si>
   <si>
     <t>buff描述3</t>
   </si>
   <si>
+    <t>fx3</t>
+  </si>
+  <si>
     <t>buff40004</t>
   </si>
   <si>
     <t>buff描述4</t>
+  </si>
+  <si>
+    <t>fx4</t>
   </si>
 </sst>
 </file>
@@ -1173,12 +1191,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I14" sqref="I14"/>
+      <selection pane="topRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1192,7 +1210,7 @@
     <col min="11" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1223,42 +1241,48 @@
       <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:11">
       <c r="A2" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="H2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:10">
       <c r="A3" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -1286,7 +1310,7 @@
     </row>
     <row r="5" s="5" customFormat="1" spans="1:10">
       <c r="A5" s="18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -1298,156 +1322,171 @@
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:10">
+    <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="20">
         <v>40001</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" s="7">
         <v>5000</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7">
         <v>1000</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>32</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="20">
         <v>40002</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E8" s="7">
         <f>60*60*1000</f>
         <v>3600000</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7">
         <v>1000</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" spans="1:10">
+        <v>32</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="1:11">
       <c r="A9" s="20"/>
       <c r="B9" s="20">
         <v>40003</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E9" s="20">
         <f>5*60*1000</f>
         <v>300000</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7">
         <v>1000</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
+        <v>32</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="20">
         <v>40004</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E10" s="7">
         <f>15*1000</f>
         <v>15000</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7">
         <v>1000</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:3">

--- a/Unity/Assets/Config/Excel/BuffConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="24645" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="BuffConfigProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>fx4</t>
+  </si>
+  <si>
+    <t>buff40005</t>
+  </si>
+  <si>
+    <t>buff描述5</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>fx5</t>
   </si>
 </sst>
 </file>
@@ -1194,9 +1206,9 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J11" sqref="J11"/>
+      <selection pane="topRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1489,9 +1501,35 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+    <row r="11" spans="2:11">
+      <c r="B11" s="20">
+        <v>40005</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="7">
+        <f>1*60*1000</f>
+        <v>60000</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="20"/>

--- a/Unity/Assets/Config/Excel/BuffConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="10455"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="BuffConfigProto" sheetId="1" r:id="rId1"/>
@@ -1208,7 +1208,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G14" sqref="G14"/>
+      <selection pane="topRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/Unity/Assets/Config/Excel/BuffConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="23265" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="BuffConfigProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>fx5</t>
+  </si>
+  <si>
+    <t>buff40006</t>
+  </si>
+  <si>
+    <t>buff描述6</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1214,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G11" sqref="G11"/>
+      <selection pane="topRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1531,9 +1537,25 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+    <row r="12" spans="2:7">
+      <c r="B12" s="20">
+        <v>40006</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="20"/>

--- a/Unity/Assets/Config/Excel/BuffConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuffConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,9 @@
     <t>Desc</t>
   </si>
   <si>
+    <t>BuffProperty</t>
+  </si>
+  <si>
     <t>ContinueTime</t>
   </si>
   <si>
@@ -68,21 +71,27 @@
     <t>int</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>MessageNotifyType</t>
+  </si>
+  <si>
+    <t>(list#sep=,),int#ref=ActionConfigCategory</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>MessageNotifyType</t>
-  </si>
-  <si>
-    <t>(list#sep=,),int#ref=ActionConfigCategory</t>
-  </si>
-  <si>
     <t>##group</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -95,6 +104,9 @@
     <t>buff描述</t>
   </si>
   <si>
+    <t>buff类型属性</t>
+  </si>
+  <si>
     <t>持续时长（ms）</t>
   </si>
   <si>
@@ -116,10 +128,7 @@
     <t>buff特效</t>
   </si>
   <si>
-    <t>buff40001</t>
-  </si>
-  <si>
-    <t>buff描述1</t>
+    <t>魔法</t>
   </si>
   <si>
     <t>通知视野内所有玩家</t>
@@ -131,49 +140,28 @@
     <t>fx1</t>
   </si>
   <si>
-    <t>buff40002</t>
-  </si>
-  <si>
-    <t>buff描述2</t>
+    <t>疾病</t>
   </si>
   <si>
     <t>fx2</t>
   </si>
   <si>
-    <t>buff40003</t>
-  </si>
-  <si>
-    <t>buff描述3</t>
+    <t>诅咒</t>
   </si>
   <si>
     <t>fx3</t>
   </si>
   <si>
-    <t>buff40004</t>
-  </si>
-  <si>
-    <t>buff描述4</t>
-  </si>
-  <si>
     <t>fx4</t>
   </si>
   <si>
-    <t>buff40005</t>
-  </si>
-  <si>
-    <t>buff描述5</t>
-  </si>
-  <si>
     <t>1002</t>
   </si>
   <si>
     <t>fx5</t>
   </si>
   <si>
-    <t>buff40006</t>
-  </si>
-  <si>
-    <t>buff描述6</t>
+    <t>2006</t>
   </si>
 </sst>
 </file>
@@ -841,26 +829,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1209,26 +1197,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H12" sqref="H12"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="7" customWidth="1"/>
-    <col min="2" max="3" width="12.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="7" customWidth="1"/>
-    <col min="6" max="7" width="23.25" style="7" customWidth="1"/>
-    <col min="8" max="10" width="44.75" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="9"/>
+    <col min="2" max="2" width="12.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="7" customWidth="1"/>
+    <col min="4" max="5" width="21.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="7" customWidth="1"/>
+    <col min="7" max="8" width="23.25" style="7" customWidth="1"/>
+    <col min="9" max="11" width="44.75" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1250,408 +1239,478 @@
       <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
-      <c r="A2" s="12" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:12">
+      <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:11">
+      <c r="A3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:11">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:11">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:10">
-      <c r="A3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:10">
-      <c r="A4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" s="5" customFormat="1" spans="1:10">
-      <c r="A5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:11">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:12">
       <c r="A6" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="H6" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="20">
+      <c r="I6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="15">
         <v>40001</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="C7" s="15" t="str">
+        <f>_xlfn.CONCAT("buffname_",B7)</f>
+        <v>buffname_40001</v>
+      </c>
+      <c r="D7" s="15" t="str">
+        <f>_xlfn.CONCAT("buffdesc_",B7)</f>
+        <v>buffdesc_40001</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7">
         <v>5000</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
         <v>1000</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="I7" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="20">
+        <v>35</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="15">
         <v>40002</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="C8" s="15" t="str">
+        <f>_xlfn.CONCAT("buffname_",B8)</f>
+        <v>buffname_40002</v>
+      </c>
+      <c r="D8" s="15" t="str">
+        <f>_xlfn.CONCAT("buffdesc_",B8)</f>
+        <v>buffdesc_40002</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="7">
         <f>60*60*1000</f>
         <v>3600000</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="G8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="7">
         <v>1000</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="I8" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" spans="1:11">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20">
+        <v>35</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="1:12">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15">
         <v>40003</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="20">
+      <c r="C9" s="15" t="str">
+        <f>_xlfn.CONCAT("buffname_",B9)</f>
+        <v>buffname_40003</v>
+      </c>
+      <c r="D9" s="15" t="str">
+        <f>_xlfn.CONCAT("buffdesc_",B9)</f>
+        <v>buffdesc_40003</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="15">
         <f>5*60*1000</f>
         <v>300000</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="G9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="7">
         <v>1000</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="I9" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="20">
+        <v>35</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="15">
         <v>40004</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="C10" s="15" t="str">
+        <f>_xlfn.CONCAT("buffname_",B10)</f>
+        <v>buffname_40004</v>
+      </c>
+      <c r="D10" s="15" t="str">
+        <f>_xlfn.CONCAT("buffdesc_",B10)</f>
+        <v>buffdesc_40004</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="7">
         <f>15*1000</f>
         <v>15000</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="G10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="7">
         <v>1000</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="I10" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="20">
+        <v>35</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="15">
         <v>40005</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="C11" s="15" t="str">
+        <f>_xlfn.CONCAT("buffname_",B11)</f>
+        <v>buffname_40005</v>
+      </c>
+      <c r="D11" s="15" t="str">
+        <f>_xlfn.CONCAT("buffdesc_",B11)</f>
+        <v>buffdesc_40005</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="7">
         <f>1*60*1000</f>
         <v>60000</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="G11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="20">
+      <c r="I11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="15">
         <v>40006</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="C12" s="15" t="str">
+        <f>_xlfn.CONCAT("buffname_",B12)</f>
+        <v>buffname_40006</v>
+      </c>
+      <c r="D12" s="15" t="str">
+        <f>_xlfn.CONCAT("buffdesc_",B12)</f>
+        <v>buffdesc_40006</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="7">
         <v>3000</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="G12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+    <row r="13" spans="2:10">
+      <c r="B13" s="15">
+        <v>40007</v>
+      </c>
+      <c r="C13" s="15" t="str">
+        <f>_xlfn.CONCAT("buffname_",B13)</f>
+        <v>buffname_40007</v>
+      </c>
+      <c r="D13" s="15" t="str">
+        <f>_xlfn.CONCAT("buffdesc_",B13)</f>
+        <v>buffdesc_40007</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="7">
+        <v>210000</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/BuffConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23265" windowHeight="10455"/>
+    <workbookView windowWidth="25350" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="BuffConfigProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,9 @@
     <t>Desc</t>
   </si>
   <si>
+    <t>##Desc</t>
+  </si>
+  <si>
     <t>BuffProperty</t>
   </si>
   <si>
@@ -159,6 +162,9 @@
   </si>
   <si>
     <t>fx5</t>
+  </si>
+  <si>
+    <t>真言术：痛</t>
   </si>
   <si>
     <t>2006</t>
@@ -1197,12 +1203,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1210,14 +1216,14 @@
     <col min="1" max="1" width="21.125" style="7" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="7" customWidth="1"/>
-    <col min="4" max="5" width="21.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="7" customWidth="1"/>
-    <col min="7" max="8" width="23.25" style="7" customWidth="1"/>
-    <col min="9" max="11" width="44.75" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="9"/>
+    <col min="4" max="6" width="21.75" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="7" customWidth="1"/>
+    <col min="8" max="9" width="23.25" style="7" customWidth="1"/>
+    <col min="10" max="12" width="44.75" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1248,7 @@
       <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="16" t="s">
@@ -1251,68 +1257,73 @@
       <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:13">
       <c r="A2" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>4</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="17" t="s">
         <v>17</v>
       </c>
+      <c r="I2" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="J2" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:11">
+      <c r="L2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:12">
       <c r="A3" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="18"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:11">
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:12">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1323,13 +1334,14 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="19"/>
+      <c r="I4" s="13"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
-    </row>
-    <row r="5" s="5" customFormat="1" spans="1:11">
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:12">
       <c r="A5" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1338,22 +1350,23 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="20"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:12">
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:13">
       <c r="A6" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>25</v>
@@ -1367,7 +1380,7 @@
       <c r="H6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="16" t="s">
@@ -1376,11 +1389,14 @@
       <c r="K6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="2:12">
+      <c r="M6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7" s="15">
         <v>40001</v>
       </c>
@@ -1392,32 +1408,33 @@
         <f>_xlfn.CONCAT("buffdesc_",B7)</f>
         <v>buffdesc_40001</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7">
         <v>5000</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="H7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="7">
         <v>1000</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="J7" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="2:12">
+      <c r="L7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8" s="15">
         <v>40002</v>
       </c>
@@ -1429,33 +1446,34 @@
         <f>_xlfn.CONCAT("buffdesc_",B8)</f>
         <v>buffdesc_40002</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="7">
         <f>60*60*1000</f>
         <v>3600000</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="H8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="7">
         <v>1000</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="J8" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="1:13">
       <c r="A9" s="15"/>
       <c r="B9" s="15">
         <v>40003</v>
@@ -1468,33 +1486,34 @@
         <f>_xlfn.CONCAT("buffdesc_",B9)</f>
         <v>buffdesc_40003</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="15">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="15">
         <f>5*60*1000</f>
         <v>300000</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="H9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="7">
         <v>1000</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="J9" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
+        <v>36</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10" s="15">
         <v>40004</v>
       </c>
@@ -1506,33 +1525,34 @@
         <f>_xlfn.CONCAT("buffdesc_",B10)</f>
         <v>buffdesc_40004</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="7">
         <f>15*1000</f>
         <v>15000</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="H10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="7">
         <v>1000</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="J10" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
+        <v>36</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
       <c r="B11" s="15">
         <v>40005</v>
       </c>
@@ -1544,30 +1564,31 @@
         <f>_xlfn.CONCAT("buffdesc_",B11)</f>
         <v>buffdesc_40005</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="7">
         <f>1*60*1000</f>
         <v>60000</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="H11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="L11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" s="15">
         <v>40006</v>
       </c>
@@ -1579,20 +1600,21 @@
         <f>_xlfn.CONCAT("buffdesc_",B12)</f>
         <v>buffdesc_40006</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="7">
         <v>3000</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="H12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:11">
       <c r="B13" s="15">
         <v>40007</v>
       </c>
@@ -1605,19 +1627,22 @@
         <v>buffdesc_40007</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="7">
+        <v>45</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7">
         <v>210000</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="H13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="7">
         <v>3000</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>44</v>
+      <c r="K13" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:3">

--- a/Unity/Assets/Config/Excel/BuffConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuffConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>2006</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>fx8</t>
   </si>
 </sst>
 </file>
@@ -1206,9 +1218,9 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+      <selection pane="topRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1645,9 +1657,39 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
+    <row r="14" spans="2:13">
+      <c r="B14" s="15">
+        <v>40008</v>
+      </c>
+      <c r="C14" s="15" t="str">
+        <f>_xlfn.CONCAT("buffname_",B14)</f>
+        <v>buffname_40008</v>
+      </c>
+      <c r="D14" s="15" t="str">
+        <f>_xlfn.CONCAT("buffdesc_",B14)</f>
+        <v>buffdesc_40008</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="15"/>

--- a/Unity/Assets/Config/Excel/BuffConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuffConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -65,9 +65,6 @@
     <t>RemoveActions</t>
   </si>
   <si>
-    <t>Fx</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>(list#sep=,),int#ref=ActionConfigCategory</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>##group</t>
   </si>
   <si>
@@ -128,42 +122,24 @@
     <t>buff移除行为</t>
   </si>
   <si>
-    <t>buff特效</t>
-  </si>
-  <si>
     <t>魔法</t>
   </si>
   <si>
     <t>通知视野内所有玩家</t>
   </si>
   <si>
-    <t>1001,1001</t>
-  </si>
-  <si>
-    <t>fx1</t>
+    <t>1001</t>
   </si>
   <si>
     <t>疾病</t>
   </si>
   <si>
-    <t>fx2</t>
-  </si>
-  <si>
     <t>诅咒</t>
   </si>
   <si>
-    <t>fx3</t>
-  </si>
-  <si>
-    <t>fx4</t>
-  </si>
-  <si>
     <t>1002</t>
   </si>
   <si>
-    <t>fx5</t>
-  </si>
-  <si>
     <t>真言术：痛</t>
   </si>
   <si>
@@ -177,9 +153,6 @@
   </si>
   <si>
     <t>1005</t>
-  </si>
-  <si>
-    <t>fx8</t>
   </si>
 </sst>
 </file>
@@ -1215,12 +1188,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M15" sqref="M15"/>
+      <selection pane="topRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1235,7 +1208,7 @@
     <col min="13" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1272,59 +1245,53 @@
       <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:12">
+      <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:13">
-      <c r="A2" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:12">
       <c r="A3" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -1353,7 +1320,7 @@
     </row>
     <row r="5" s="5" customFormat="1" spans="1:12">
       <c r="A5" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1367,237 +1334,197 @@
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:13">
+    <row r="6" s="1" customFormat="1" spans="1:12">
       <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="E6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="J6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="K6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="L6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="15">
         <v>40001</v>
       </c>
       <c r="C7" s="15" t="str">
-        <f>_xlfn.CONCAT("buffname_",B7)</f>
+        <f t="shared" ref="C7:C14" si="0">_xlfn.CONCAT("buffname_",B7)</f>
         <v>buffname_40001</v>
       </c>
       <c r="D7" s="15" t="str">
-        <f>_xlfn.CONCAT("buffdesc_",B7)</f>
+        <f t="shared" ref="D7:D14" si="1">_xlfn.CONCAT("buffdesc_",B7)</f>
         <v>buffdesc_40001</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7">
         <v>5000</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I7" s="7">
         <v>1000</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="15">
         <v>40002</v>
       </c>
       <c r="C8" s="15" t="str">
-        <f>_xlfn.CONCAT("buffname_",B8)</f>
+        <f t="shared" si="0"/>
         <v>buffname_40002</v>
       </c>
       <c r="D8" s="15" t="str">
-        <f>_xlfn.CONCAT("buffdesc_",B8)</f>
+        <f t="shared" si="1"/>
         <v>buffdesc_40002</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7">
         <f>60*60*1000</f>
         <v>3600000</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I8" s="7">
         <v>1000</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" spans="1:13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="1:12">
       <c r="A9" s="15"/>
       <c r="B9" s="15">
         <v>40003</v>
       </c>
       <c r="C9" s="15" t="str">
-        <f>_xlfn.CONCAT("buffname_",B9)</f>
+        <f t="shared" si="0"/>
         <v>buffname_40003</v>
       </c>
       <c r="D9" s="15" t="str">
-        <f>_xlfn.CONCAT("buffdesc_",B9)</f>
+        <f t="shared" si="1"/>
         <v>buffdesc_40003</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G9" s="15">
         <f>5*60*1000</f>
         <v>300000</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I9" s="7">
         <v>1000</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
+        <v>33</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="15">
         <v>40004</v>
       </c>
       <c r="C10" s="15" t="str">
-        <f>_xlfn.CONCAT("buffname_",B10)</f>
+        <f t="shared" si="0"/>
         <v>buffname_40004</v>
       </c>
       <c r="D10" s="15" t="str">
-        <f>_xlfn.CONCAT("buffdesc_",B10)</f>
+        <f t="shared" si="1"/>
         <v>buffdesc_40004</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7">
         <f>15*1000</f>
         <v>15000</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I10" s="7">
         <v>1000</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="15">
         <v>40005</v>
       </c>
       <c r="C11" s="15" t="str">
-        <f>_xlfn.CONCAT("buffname_",B11)</f>
+        <f t="shared" si="0"/>
         <v>buffname_40005</v>
       </c>
       <c r="D11" s="15" t="str">
-        <f>_xlfn.CONCAT("buffdesc_",B11)</f>
+        <f t="shared" si="1"/>
         <v>buffdesc_40005</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7">
         <f>1*60*1000</f>
         <v>60000</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -1605,22 +1532,22 @@
         <v>40006</v>
       </c>
       <c r="C12" s="15" t="str">
-        <f>_xlfn.CONCAT("buffname_",B12)</f>
+        <f t="shared" si="0"/>
         <v>buffname_40006</v>
       </c>
       <c r="D12" s="15" t="str">
-        <f>_xlfn.CONCAT("buffdesc_",B12)</f>
+        <f t="shared" si="1"/>
         <v>buffdesc_40006</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G12" s="7">
         <v>3000</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1631,64 +1558,61 @@
         <v>40007</v>
       </c>
       <c r="C13" s="15" t="str">
-        <f>_xlfn.CONCAT("buffname_",B13)</f>
+        <f t="shared" si="0"/>
         <v>buffname_40007</v>
       </c>
       <c r="D13" s="15" t="str">
-        <f>_xlfn.CONCAT("buffdesc_",B13)</f>
+        <f t="shared" si="1"/>
         <v>buffdesc_40007</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7">
         <v>210000</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I13" s="7">
         <v>3000</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="15">
         <v>40008</v>
       </c>
       <c r="C14" s="15" t="str">
-        <f>_xlfn.CONCAT("buffname_",B14)</f>
+        <f t="shared" si="0"/>
         <v>buffname_40008</v>
       </c>
       <c r="D14" s="15" t="str">
-        <f>_xlfn.CONCAT("buffdesc_",B14)</f>
+        <f t="shared" si="1"/>
         <v>buffdesc_40008</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7">
         <v>2000</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:3">

--- a/Unity/Assets/Config/Excel/BuffConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25350" windowHeight="10455"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="BuffConfigProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -153,6 +153,21 @@
   </si>
   <si>
     <t>1005</t>
+  </si>
+  <si>
+    <t>圣盾术</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>争分夺秒</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>真言术：盾</t>
   </si>
 </sst>
 </file>
@@ -1188,12 +1203,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F20" sqref="F20"/>
+      <selection pane="topRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1372,264 +1387,358 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" customFormat="1" spans="1:12">
+      <c r="A7" s="7"/>
       <c r="B7" s="15">
-        <v>40001</v>
-      </c>
-      <c r="C7" s="15" t="str">
-        <f t="shared" ref="C7:C14" si="0">_xlfn.CONCAT("buffname_",B7)</f>
-        <v>buffname_40001</v>
-      </c>
-      <c r="D7" s="15" t="str">
-        <f t="shared" ref="D7:D14" si="1">_xlfn.CONCAT("buffdesc_",B7)</f>
-        <v>buffdesc_40001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="7">
-        <v>5000</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1000</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="15">
+        <v>40001</v>
+      </c>
+      <c r="C8" s="15" t="str">
+        <f t="shared" ref="C8:C15" si="0">_xlfn.CONCAT("buffname_",B8)</f>
+        <v>buffname_40001</v>
+      </c>
+      <c r="D8" s="15" t="str">
+        <f t="shared" ref="D8:D15" si="1">_xlfn.CONCAT("buffdesc_",B8)</f>
+        <v>buffdesc_40001</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7">
+        <v>5000</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="15">
         <v>40002</v>
       </c>
-      <c r="C8" s="15" t="str">
+      <c r="C9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>buffname_40002</v>
       </c>
-      <c r="D8" s="15" t="str">
+      <c r="D9" s="15" t="str">
         <f t="shared" si="1"/>
         <v>buffdesc_40002</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="7">
         <f>60*60*1000</f>
         <v>3600000</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="7">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" spans="1:12">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15">
+    <row r="10" s="6" customFormat="1" spans="1:12">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15">
         <v>40003</v>
       </c>
-      <c r="C9" s="15" t="str">
+      <c r="C10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>buffname_40003</v>
       </c>
-      <c r="D9" s="15" t="str">
+      <c r="D10" s="15" t="str">
         <f t="shared" si="1"/>
         <v>buffdesc_40003</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G10" s="15">
         <f>5*60*1000</f>
         <v>300000</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="7">
-        <v>1000</v>
-      </c>
-      <c r="J9" s="8" t="s">
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="15">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="15">
         <v>40004</v>
       </c>
-      <c r="C10" s="15" t="str">
+      <c r="C11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>buffname_40004</v>
       </c>
-      <c r="D10" s="15" t="str">
+      <c r="D11" s="15" t="str">
         <f t="shared" si="1"/>
         <v>buffdesc_40004</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="7">
         <f>15*1000</f>
         <v>15000</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="7">
-        <v>1000</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="15">
+    <row r="12" spans="2:12">
+      <c r="B12" s="15">
         <v>40005</v>
       </c>
-      <c r="C11" s="15" t="str">
+      <c r="C12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>buffname_40005</v>
       </c>
-      <c r="D11" s="15" t="str">
+      <c r="D12" s="15" t="str">
         <f t="shared" si="1"/>
         <v>buffdesc_40005</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G12" s="7">
         <f>1*60*1000</f>
         <v>60000</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I12" s="7">
         <v>0</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L12" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="15">
+    <row r="13" spans="2:9">
+      <c r="B13" s="15">
         <v>40006</v>
       </c>
-      <c r="C12" s="15" t="str">
+      <c r="C13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>buffname_40006</v>
       </c>
-      <c r="D12" s="15" t="str">
+      <c r="D13" s="15" t="str">
         <f t="shared" si="1"/>
         <v>buffdesc_40006</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G13" s="7">
         <v>3000</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I13" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="15">
+    <row r="14" spans="2:11">
+      <c r="B14" s="15">
         <v>40007</v>
       </c>
-      <c r="C13" s="15" t="str">
+      <c r="C14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>buffname_40007</v>
       </c>
-      <c r="D13" s="15" t="str">
+      <c r="D14" s="15" t="str">
         <f t="shared" si="1"/>
         <v>buffdesc_40007</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G14" s="7">
         <v>210000</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I14" s="7">
         <v>3000</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K14" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="15">
+    <row r="15" spans="2:10">
+      <c r="B15" s="15">
         <v>40008</v>
       </c>
-      <c r="C14" s="15" t="str">
+      <c r="C15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>buffname_40008</v>
       </c>
-      <c r="D14" s="15" t="str">
+      <c r="D15" s="15" t="str">
         <f t="shared" si="1"/>
         <v>buffdesc_40008</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G15" s="7">
         <v>2000</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I15" s="7">
         <v>0</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J15" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+    <row r="16" spans="2:10">
+      <c r="B16" s="15">
+        <v>40009</v>
+      </c>
+      <c r="C16" s="15" t="str">
+        <f>_xlfn.CONCAT("buffname_",B16)</f>
+        <v>buffname_40009</v>
+      </c>
+      <c r="D16" s="15" t="str">
+        <f>_xlfn.CONCAT("buffdesc_",B16)</f>
+        <v>buffdesc_40009</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="7">
+        <f>15*1000</f>
+        <v>15000</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="15">
+        <v>40010</v>
+      </c>
+      <c r="C17" s="15" t="str">
+        <f>_xlfn.CONCAT("buffname_",B17)</f>
+        <v>buffname_40010</v>
+      </c>
+      <c r="D17" s="15" t="str">
+        <f>_xlfn.CONCAT("buffdesc_",B17)</f>
+        <v>buffdesc_40010</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="7">
+        <f>15*1000</f>
+        <v>15000</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="15">
+        <v>40011</v>
+      </c>
+      <c r="C18" s="15" t="str">
+        <f>_xlfn.CONCAT("buffname_",B18)</f>
+        <v>buffname_40011</v>
+      </c>
+      <c r="D18" s="15" t="str">
+        <f>_xlfn.CONCAT("buffdesc_",B18)</f>
+        <v>buffdesc_40011</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="7">
+        <v>15000</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="15"/>
@@ -1702,6 +1811,10 @@
     <row r="36" spans="2:3">
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/BuffConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="25590" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="BuffConfigProto" sheetId="1" r:id="rId1"/>
@@ -1208,7 +1208,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J18" sqref="J18"/>
+      <selection pane="topRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1410,11 +1410,11 @@
         <v>40001</v>
       </c>
       <c r="C8" s="15" t="str">
-        <f t="shared" ref="C8:C15" si="0">_xlfn.CONCAT("buffname_",B8)</f>
+        <f t="shared" ref="C8:C18" si="0">_xlfn.CONCAT("buffname_",B8)</f>
         <v>buffname_40001</v>
       </c>
       <c r="D8" s="15" t="str">
-        <f t="shared" ref="D8:D15" si="1">_xlfn.CONCAT("buffdesc_",B8)</f>
+        <f t="shared" ref="D8:D18" si="1">_xlfn.CONCAT("buffdesc_",B8)</f>
         <v>buffdesc_40001</v>
       </c>
       <c r="E8" s="15"/>
@@ -1653,11 +1653,11 @@
         <v>40009</v>
       </c>
       <c r="C16" s="15" t="str">
-        <f>_xlfn.CONCAT("buffname_",B16)</f>
+        <f t="shared" si="0"/>
         <v>buffname_40009</v>
       </c>
       <c r="D16" s="15" t="str">
-        <f>_xlfn.CONCAT("buffdesc_",B16)</f>
+        <f t="shared" si="1"/>
         <v>buffdesc_40009</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -1685,11 +1685,11 @@
         <v>40010</v>
       </c>
       <c r="C17" s="15" t="str">
-        <f>_xlfn.CONCAT("buffname_",B17)</f>
+        <f t="shared" si="0"/>
         <v>buffname_40010</v>
       </c>
       <c r="D17" s="15" t="str">
-        <f>_xlfn.CONCAT("buffdesc_",B17)</f>
+        <f t="shared" si="1"/>
         <v>buffdesc_40010</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -1717,11 +1717,11 @@
         <v>40011</v>
       </c>
       <c r="C18" s="15" t="str">
-        <f>_xlfn.CONCAT("buffname_",B18)</f>
+        <f t="shared" si="0"/>
         <v>buffname_40011</v>
       </c>
       <c r="D18" s="15" t="str">
-        <f>_xlfn.CONCAT("buffdesc_",B18)</f>
+        <f t="shared" si="1"/>
         <v>buffdesc_40011</v>
       </c>
       <c r="E18" s="15" t="s">
